--- a/hydroelectric_power/TD/TD5/Copie de Temp 5.xlsx
+++ b/hydroelectric_power/TD/TD5/Copie de Temp 5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="structure and time dynamics" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>Time [years]</t>
   </si>
   <si>
-    <t>* first year only 50% of the cost, since we start to operate in the second half of the year</t>
-  </si>
-  <si>
     <t>FINANCIAL CONSTRUCTION CONSIDERIND VARIABLE COST</t>
   </si>
   <si>
@@ -271,7 +268,10 @@
     <t>IRR</t>
   </si>
   <si>
-    <t>*we are operationg only a half of the year</t>
+    <t>Total amortization</t>
+  </si>
+  <si>
+    <t>Final cumulative</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +321,30 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,12 +354,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,6 +375,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -855,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1013,34 +1071,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,9 +1109,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1159,7 +1231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1492,10 +1564,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555937672"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1550,10 +1623,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555943248"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -1591,7 +1665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="290888528"/>
@@ -1609,6 +1683,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="290886560"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1650,7 +1725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1680,7 +1755,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2086,10 +2161,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="552763768"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2144,10 +2220,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="552761472"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -2185,7 +2262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="560651368"/>
@@ -2203,6 +2280,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="560651040"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2244,7 +2322,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2274,7 +2352,875 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14244663167104113"/>
+          <c:y val="4.6296296296296294E-2"/>
+          <c:w val="0.83658573928258972"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static indicators'!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total amortization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static indicators'!$E$25:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1550000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3DF7-4ECD-90B9-1A6147A203C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static indicators'!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total: operational costs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static indicators'!$J$25:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>501500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1003000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1003000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3DF7-4ECD-90B9-1A6147A203C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="370431152"/>
+        <c:axId val="370428856"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static indicators'!$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final cumulative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static indicators'!$M$25:$M$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2051500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6154500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10257500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14360500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18463500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22566500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26669500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30172500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33075500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35978500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38881500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41784500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44687500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47590500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50493500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53396500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56299500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59202500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62105500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65008500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67311500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69014500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70717500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72420500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74123500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75826500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77529500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79232500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80935500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82638500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84341500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>86044500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>87747500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89450500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91153500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92856500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94559500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96262500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>97965500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99668500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101371500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103074500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>104777500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>106480500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108183500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>109886500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>111589500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>113292500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>114995500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>116698500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3DF7-4ECD-90B9-1A6147A203C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="375177432"/>
+        <c:axId val="375176120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370431152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370428856"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370428856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370431152"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375176120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375177432"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="375177432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375176120"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2326,6 +3272,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3397,6 +4383,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3454,6 +4956,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180108</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>429490</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3761,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:J46"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3791,15 +5328,15 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -4089,15 +5626,15 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -4144,31 +5681,31 @@
       <c r="C19" s="42">
         <v>35000000</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="69">
         <f>$C$19*D6/100</f>
         <v>0</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="69">
         <f t="shared" ref="E19:J19" si="2">$C$19*E6/100</f>
         <v>0</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="69">
         <f t="shared" si="2"/>
         <v>4550000</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="69">
         <f t="shared" si="2"/>
         <v>10500000</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="69">
         <f t="shared" si="2"/>
         <v>7350000</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="69">
         <f t="shared" si="2"/>
         <v>10500000</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="69">
         <f t="shared" si="2"/>
         <v>2100000</v>
       </c>
@@ -4185,31 +5722,31 @@
       <c r="C20" s="42">
         <v>24000000</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="69">
         <f>$C$20*D7/100</f>
         <v>0</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="69">
         <f t="shared" ref="E20:J20" si="4">$C$20*E7/100</f>
         <v>0</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="69">
         <f t="shared" si="4"/>
         <v>650400</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="69">
         <f t="shared" si="4"/>
         <v>1159200</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="69">
         <f t="shared" si="4"/>
         <v>5040000</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="69">
         <f t="shared" si="4"/>
         <v>11920800</v>
       </c>
-      <c r="J20" s="82">
+      <c r="J20" s="69">
         <f t="shared" si="4"/>
         <v>5229600</v>
       </c>
@@ -4349,31 +5886,31 @@
       <c r="C24" s="42">
         <v>8000000</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="69">
         <f>$C$24*D11/100</f>
         <v>960000</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="69">
         <f t="shared" ref="E24:J24" si="8">$C$24*E11/100</f>
         <v>880000</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="69">
         <f t="shared" si="8"/>
         <v>1520000</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="69">
         <f t="shared" si="8"/>
         <v>1360000</v>
       </c>
-      <c r="H24" s="82">
+      <c r="H24" s="69">
         <f t="shared" si="8"/>
         <v>1200000</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="69">
         <f t="shared" si="8"/>
         <v>1120000</v>
       </c>
-      <c r="J24" s="82">
+      <c r="J24" s="69">
         <f t="shared" si="8"/>
         <v>960000</v>
       </c>
@@ -4421,37 +5958,37 @@
       <c r="K25" s="44"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="83">
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="70">
         <f>D25</f>
         <v>960000</v>
       </c>
-      <c r="E27" s="82">
-        <f>D27+E25</f>
+      <c r="E27" s="69">
+        <f t="shared" ref="E27:J27" si="10">D27+E25</f>
         <v>1840000</v>
       </c>
-      <c r="F27" s="82">
-        <f>E27+F25</f>
+      <c r="F27" s="69">
+        <f t="shared" si="10"/>
         <v>8560400</v>
       </c>
-      <c r="G27" s="82">
-        <f>F27+G25</f>
+      <c r="G27" s="69">
+        <f t="shared" si="10"/>
         <v>21579600</v>
       </c>
-      <c r="H27" s="82">
-        <f>G27+H25</f>
+      <c r="H27" s="69">
+        <f t="shared" si="10"/>
         <v>35169600</v>
       </c>
-      <c r="I27" s="82">
-        <f>H27+I25</f>
+      <c r="I27" s="69">
+        <f t="shared" si="10"/>
         <v>58710400</v>
       </c>
-      <c r="J27" s="82">
-        <f>I27+J25</f>
+      <c r="J27" s="69">
+        <f t="shared" si="10"/>
         <v>67000000</v>
       </c>
       <c r="K27" s="3"/>
@@ -4488,15 +6025,15 @@
       <c r="K32" s="3"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -4537,7 +6074,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="41">
-        <f t="shared" ref="B36:B41" si="10">C36/$C$46*100</f>
+        <f t="shared" ref="B36:B41" si="11">C36/$C$46*100</f>
         <v>48.534392790700089</v>
       </c>
       <c r="C36" s="42">
@@ -4548,27 +6085,27 @@
         <v>0</v>
       </c>
       <c r="E36" s="43">
-        <f t="shared" ref="E36:J36" si="11">E19</f>
+        <f t="shared" ref="E36:J36" si="12">E19</f>
         <v>0</v>
       </c>
       <c r="F36" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4550000</v>
       </c>
       <c r="G36" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10500000</v>
       </c>
       <c r="H36" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7350000</v>
       </c>
       <c r="I36" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10500000</v>
       </c>
       <c r="J36" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2100000</v>
       </c>
       <c r="K36" s="44"/>
@@ -4578,38 +6115,38 @@
         <v>7</v>
       </c>
       <c r="B37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33.280726485051488</v>
       </c>
       <c r="C37" s="42">
         <v>24000000</v>
       </c>
       <c r="D37" s="43">
-        <f t="shared" ref="D37:J42" si="12">D20</f>
+        <f t="shared" ref="D37:J42" si="13">D20</f>
         <v>0</v>
       </c>
       <c r="E37" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F37" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>650400</v>
       </c>
       <c r="G37" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1159200</v>
       </c>
       <c r="H37" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5040000</v>
       </c>
       <c r="I37" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11920800</v>
       </c>
       <c r="J37" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5229600</v>
       </c>
       <c r="K37" s="44"/>
@@ -4619,38 +6156,38 @@
         <v>8</v>
       </c>
       <c r="B38" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.3201816212628721</v>
       </c>
       <c r="C38" s="42">
         <v>6000000</v>
       </c>
       <c r="D38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>900000</v>
       </c>
       <c r="H38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2100000</v>
       </c>
       <c r="I38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2400000</v>
       </c>
       <c r="J38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>600000</v>
       </c>
       <c r="K38" s="44"/>
@@ -4660,38 +6197,38 @@
         <v>9</v>
       </c>
       <c r="B39" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18.027060179402891</v>
       </c>
       <c r="C39" s="42">
         <v>13000000</v>
       </c>
       <c r="D39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>650000</v>
       </c>
       <c r="G39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>260000</v>
       </c>
       <c r="H39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1040000</v>
       </c>
       <c r="I39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7020000</v>
       </c>
       <c r="J39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4030000</v>
       </c>
       <c r="K39" s="44"/>
@@ -4701,38 +6238,38 @@
         <v>10</v>
       </c>
       <c r="B40" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9334846843857267</v>
       </c>
       <c r="C40" s="42">
         <v>5000000</v>
       </c>
       <c r="D40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1900000</v>
       </c>
       <c r="I40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="J40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>600000</v>
       </c>
       <c r="K40" s="44"/>
@@ -4742,38 +6279,38 @@
         <v>11</v>
       </c>
       <c r="B41" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.093575495017163</v>
       </c>
       <c r="C41" s="42">
         <v>8000000</v>
       </c>
       <c r="D41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>960000</v>
       </c>
       <c r="E41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>880000</v>
       </c>
       <c r="F41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1520000</v>
       </c>
       <c r="G41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1360000</v>
       </c>
       <c r="H41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1200000</v>
       </c>
       <c r="I41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1120000</v>
       </c>
       <c r="J41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>960000</v>
       </c>
       <c r="K41" s="44"/>
@@ -4790,31 +6327,31 @@
         <v>67000000</v>
       </c>
       <c r="D42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>960000</v>
       </c>
       <c r="E42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>880000</v>
       </c>
       <c r="F42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6720400</v>
       </c>
       <c r="G42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13019200</v>
       </c>
       <c r="H42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13589999.999999998</v>
       </c>
       <c r="I42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23540800</v>
       </c>
       <c r="J42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8289600</v>
       </c>
       <c r="K42" s="44"/>
@@ -4847,27 +6384,27 @@
         <v>1</v>
       </c>
       <c r="E44" s="48">
-        <f t="shared" ref="E44:J44" si="13">(1+$B$32)^(E35-1)</f>
+        <f t="shared" ref="E44:J44" si="14">(1+$B$32)^(E35-1)</f>
         <v>1.018</v>
       </c>
       <c r="F44" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.036324</v>
       </c>
       <c r="G44" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0549778320000001</v>
       </c>
       <c r="H44" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0739674329760001</v>
       </c>
       <c r="I44" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0932988467695681</v>
       </c>
       <c r="J44" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1129782260114203</v>
       </c>
       <c r="K44" s="44"/>
@@ -4889,27 +6426,27 @@
         <v>0</v>
       </c>
       <c r="E45" s="43">
-        <f t="shared" ref="E45:J45" si="14">E46-E25</f>
+        <f t="shared" ref="E45:J45" si="15">E46-E25</f>
         <v>15840</v>
       </c>
       <c r="F45" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>244111.80960000027</v>
       </c>
       <c r="G45" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>715767.39037440158</v>
       </c>
       <c r="H45" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1005217.4141438399</v>
       </c>
       <c r="I45" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2196329.4920330495</v>
       </c>
       <c r="J45" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>936544.30234427005</v>
       </c>
       <c r="K45" s="44"/>
@@ -4925,32 +6462,32 @@
         <f>J48</f>
         <v>72113810.40849556</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="67">
         <f>D44*D42</f>
         <v>960000</v>
       </c>
-      <c r="E46" s="73">
-        <f t="shared" ref="E46:J46" si="15">E44*E42</f>
+      <c r="E46" s="67">
+        <f t="shared" ref="E46:J46" si="16">E44*E42</f>
         <v>895840</v>
       </c>
-      <c r="F46" s="73">
-        <f t="shared" si="15"/>
+      <c r="F46" s="67">
+        <f t="shared" si="16"/>
         <v>6964511.8096000003</v>
       </c>
-      <c r="G46" s="73">
-        <f t="shared" si="15"/>
+      <c r="G46" s="67">
+        <f t="shared" si="16"/>
         <v>13734967.390374402</v>
       </c>
-      <c r="H46" s="73">
-        <f t="shared" si="15"/>
+      <c r="H46" s="67">
+        <f t="shared" si="16"/>
         <v>14595217.414143838</v>
       </c>
-      <c r="I46" s="73">
-        <f t="shared" si="15"/>
+      <c r="I46" s="67">
+        <f t="shared" si="16"/>
         <v>25737129.492033049</v>
       </c>
-      <c r="J46" s="73">
-        <f t="shared" si="15"/>
+      <c r="J46" s="67">
+        <f t="shared" si="16"/>
         <v>9226144.3023442701</v>
       </c>
       <c r="K46" s="44"/>
@@ -4969,11 +6506,11 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="52">
         <f>D46</f>
         <v>960000</v>
@@ -5026,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="67" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5043,7 +6580,8 @@
     <col min="10" max="10" width="14.44140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.109375" style="2" customWidth="1"/>
-    <col min="13" max="27" width="9.109375" style="2"/>
+    <col min="13" max="13" width="18.33203125" style="2" customWidth="1"/>
+    <col min="14" max="27" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5192,7 +6730,7 @@
       <c r="A19" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="71">
         <f>B18/B5/1000000</f>
         <v>3.7950731707317067E-2</v>
       </c>
@@ -5216,99 +6754,107 @@
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
       <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="61"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="64" t="s">
+      <c r="E23" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="83" t="s">
         <v>53</v>
       </c>
+      <c r="M23" s="88" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="85" t="s">
         <v>38</v>
       </c>
+      <c r="M24" s="86" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="66">
+      <c r="A25" s="84">
         <v>1</v>
       </c>
       <c r="B25" s="58">
@@ -5350,16 +6896,17 @@
         <f>E25+J25</f>
         <v>2051500</v>
       </c>
-      <c r="L25" s="84">
+      <c r="L25" s="71">
         <f>K25/$B$5/1000000*2</f>
         <v>6.6715447154471544E-2</v>
       </c>
-      <c r="M25" s="67" t="s">
-        <v>55</v>
+      <c r="M25" s="87">
+        <f>K25</f>
+        <v>2051500</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="66">
+      <c r="A26" s="84">
         <v>2</v>
       </c>
       <c r="B26" s="58">
@@ -5370,7 +6917,7 @@
         <v>1200000</v>
       </c>
       <c r="D26" s="58">
-        <f t="shared" ref="D26:D32" si="0">0.15*$B$10</f>
+        <f t="shared" ref="D26:D31" si="0">0.15*$B$10</f>
         <v>1200000</v>
       </c>
       <c r="E26" s="58">
@@ -5401,20 +6948,24 @@
         <f t="shared" ref="K26:K74" si="3">E26+J26</f>
         <v>4103000</v>
       </c>
-      <c r="L26" s="84">
+      <c r="L26" s="71">
         <f t="shared" ref="L26:L74" si="4">K26/$B$5/1000000</f>
         <v>6.6715447154471544E-2</v>
       </c>
+      <c r="M26" s="87">
+        <f>M25+K26</f>
+        <v>6154500</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="66">
+      <c r="A27" s="84">
         <v>3</v>
       </c>
       <c r="B27" s="58">
         <v>700000</v>
       </c>
       <c r="C27" s="58">
-        <f t="shared" ref="C27:C45" si="5">$C$25*2</f>
+        <f t="shared" ref="C27:C44" si="5">$C$25*2</f>
         <v>1200000</v>
       </c>
       <c r="D27" s="58">
@@ -5449,13 +7000,17 @@
         <f t="shared" si="3"/>
         <v>4103000</v>
       </c>
-      <c r="L27" s="84">
+      <c r="L27" s="71">
         <f t="shared" si="4"/>
         <v>6.6715447154471544E-2</v>
       </c>
+      <c r="M27" s="87">
+        <f>M26+K27</f>
+        <v>10257500</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="66">
+      <c r="A28" s="84">
         <v>4</v>
       </c>
       <c r="B28" s="58">
@@ -5497,13 +7052,17 @@
         <f t="shared" si="3"/>
         <v>4103000</v>
       </c>
-      <c r="L28" s="84">
+      <c r="L28" s="71">
         <f t="shared" si="4"/>
         <v>6.6715447154471544E-2</v>
       </c>
+      <c r="M28" s="87">
+        <f t="shared" ref="M28:M74" si="10">M27+K28</f>
+        <v>14360500</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="66">
+      <c r="A29" s="84">
         <v>5</v>
       </c>
       <c r="B29" s="58">
@@ -5545,13 +7104,17 @@
         <f t="shared" si="3"/>
         <v>4103000</v>
       </c>
-      <c r="L29" s="84">
+      <c r="L29" s="71">
         <f t="shared" si="4"/>
         <v>6.6715447154471544E-2</v>
       </c>
+      <c r="M29" s="87">
+        <f t="shared" si="10"/>
+        <v>18463500</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="66">
+      <c r="A30" s="84">
         <v>6</v>
       </c>
       <c r="B30" s="58">
@@ -5593,13 +7156,17 @@
         <f t="shared" si="3"/>
         <v>4103000</v>
       </c>
-      <c r="L30" s="84">
+      <c r="L30" s="71">
         <f t="shared" si="4"/>
         <v>6.6715447154471544E-2</v>
       </c>
+      <c r="M30" s="87">
+        <f t="shared" si="10"/>
+        <v>22566500</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="66">
+      <c r="A31" s="84">
         <v>7</v>
       </c>
       <c r="B31" s="58">
@@ -5641,13 +7208,17 @@
         <f t="shared" si="3"/>
         <v>4103000</v>
       </c>
-      <c r="L31" s="84">
+      <c r="L31" s="71">
         <f t="shared" si="4"/>
         <v>6.6715447154471544E-2</v>
       </c>
+      <c r="M31" s="87">
+        <f t="shared" si="10"/>
+        <v>26669500</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="39">
+      <c r="A32" s="84">
         <v>8</v>
       </c>
       <c r="B32" s="58">
@@ -5689,14 +7260,17 @@
         <f t="shared" si="3"/>
         <v>3503000</v>
       </c>
-      <c r="L32" s="84">
+      <c r="L32" s="71">
         <f t="shared" si="4"/>
         <v>5.6959349593495932E-2</v>
       </c>
-      <c r="M32"/>
+      <c r="M32" s="87">
+        <f t="shared" si="10"/>
+        <v>30172500</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
+      <c r="A33" s="84">
         <v>9</v>
       </c>
       <c r="B33" s="58">
@@ -5735,13 +7309,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L33" s="84">
+      <c r="L33" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M33" s="87">
+        <f t="shared" si="10"/>
+        <v>33075500</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="39">
+      <c r="A34" s="84">
         <v>10</v>
       </c>
       <c r="B34" s="58">
@@ -5780,13 +7358,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L34" s="84">
+      <c r="L34" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M34" s="87">
+        <f t="shared" si="10"/>
+        <v>35978500</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
+      <c r="A35" s="84">
         <v>11</v>
       </c>
       <c r="B35" s="58">
@@ -5825,13 +7407,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L35" s="84">
+      <c r="L35" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M35" s="87">
+        <f t="shared" si="10"/>
+        <v>38881500</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="39">
+      <c r="A36" s="84">
         <v>12</v>
       </c>
       <c r="B36" s="58">
@@ -5870,13 +7456,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L36" s="84">
+      <c r="L36" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M36" s="87">
+        <f t="shared" si="10"/>
+        <v>41784500</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="39">
+      <c r="A37" s="84">
         <v>13</v>
       </c>
       <c r="B37" s="58">
@@ -5915,13 +7505,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L37" s="84">
+      <c r="L37" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M37" s="87">
+        <f t="shared" si="10"/>
+        <v>44687500</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="39">
+      <c r="A38" s="84">
         <v>14</v>
       </c>
       <c r="B38" s="58">
@@ -5960,13 +7554,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L38" s="84">
+      <c r="L38" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M38" s="87">
+        <f t="shared" si="10"/>
+        <v>47590500</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="39">
+      <c r="A39" s="84">
         <v>15</v>
       </c>
       <c r="B39" s="58">
@@ -6005,13 +7603,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L39" s="84">
+      <c r="L39" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M39" s="87">
+        <f t="shared" si="10"/>
+        <v>50493500</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="39">
+      <c r="A40" s="84">
         <v>16</v>
       </c>
       <c r="B40" s="58">
@@ -6050,13 +7652,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L40" s="84">
+      <c r="L40" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M40" s="87">
+        <f t="shared" si="10"/>
+        <v>53396500</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
+      <c r="A41" s="84">
         <v>17</v>
       </c>
       <c r="B41" s="58">
@@ -6095,13 +7701,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L41" s="84">
+      <c r="L41" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M41" s="87">
+        <f t="shared" si="10"/>
+        <v>56299500</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="39">
+      <c r="A42" s="84">
         <v>18</v>
       </c>
       <c r="B42" s="58">
@@ -6140,13 +7750,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L42" s="84">
+      <c r="L42" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M42" s="87">
+        <f t="shared" si="10"/>
+        <v>59202500</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="39">
+      <c r="A43" s="84">
         <v>19</v>
       </c>
       <c r="B43" s="58">
@@ -6185,13 +7799,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L43" s="84">
+      <c r="L43" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M43" s="87">
+        <f t="shared" si="10"/>
+        <v>62105500</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="39">
+      <c r="A44" s="84">
         <v>20</v>
       </c>
       <c r="B44" s="58">
@@ -6230,13 +7848,17 @@
         <f t="shared" si="3"/>
         <v>2903000</v>
       </c>
-      <c r="L44" s="84">
+      <c r="L44" s="71">
         <f t="shared" si="4"/>
         <v>4.7203252032520321E-2</v>
       </c>
+      <c r="M44" s="87">
+        <f t="shared" si="10"/>
+        <v>65008500</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="39">
+      <c r="A45" s="84">
         <v>21</v>
       </c>
       <c r="B45" s="58">
@@ -6275,14 +7897,17 @@
         <f t="shared" si="3"/>
         <v>2303000</v>
       </c>
-      <c r="L45" s="84">
+      <c r="L45" s="71">
         <f t="shared" si="4"/>
         <v>3.7447154471544716E-2</v>
       </c>
-      <c r="M45"/>
+      <c r="M45" s="87">
+        <f t="shared" si="10"/>
+        <v>67311500</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="39">
+      <c r="A46" s="84">
         <v>22</v>
       </c>
       <c r="B46" s="58">
@@ -6318,13 +7943,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L46" s="84">
+      <c r="L46" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
+      <c r="M46" s="87">
+        <f t="shared" si="10"/>
+        <v>69014500</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="39">
+      <c r="A47" s="84">
         <v>23</v>
       </c>
       <c r="B47" s="58">
@@ -6360,13 +7989,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L47" s="84">
+      <c r="L47" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
+      <c r="M47" s="87">
+        <f t="shared" si="10"/>
+        <v>70717500</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="39">
+      <c r="A48" s="84">
         <v>24</v>
       </c>
       <c r="B48" s="58">
@@ -6402,13 +8035,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L48" s="84">
+      <c r="L48" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="39">
+      <c r="M48" s="87">
+        <f t="shared" si="10"/>
+        <v>72420500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="84">
         <v>25</v>
       </c>
       <c r="B49" s="58">
@@ -6444,13 +8081,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L49" s="84">
+      <c r="L49" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="39">
+      <c r="M49" s="87">
+        <f t="shared" si="10"/>
+        <v>74123500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="84">
         <v>26</v>
       </c>
       <c r="B50" s="58">
@@ -6486,13 +8127,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L50" s="84">
+      <c r="L50" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="39">
+      <c r="M50" s="87">
+        <f t="shared" si="10"/>
+        <v>75826500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="84">
         <v>27</v>
       </c>
       <c r="B51" s="58">
@@ -6528,13 +8173,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L51" s="84">
+      <c r="L51" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="39">
+      <c r="M51" s="87">
+        <f t="shared" si="10"/>
+        <v>77529500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="84">
         <v>28</v>
       </c>
       <c r="B52" s="58">
@@ -6570,13 +8219,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L52" s="84">
+      <c r="L52" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="39">
+      <c r="M52" s="87">
+        <f t="shared" si="10"/>
+        <v>79232500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="84">
         <v>29</v>
       </c>
       <c r="B53" s="58">
@@ -6612,13 +8265,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L53" s="84">
+      <c r="L53" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="39">
+      <c r="M53" s="87">
+        <f t="shared" si="10"/>
+        <v>80935500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="84">
         <v>30</v>
       </c>
       <c r="B54" s="58">
@@ -6654,13 +8311,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="39">
+      <c r="M54" s="87">
+        <f t="shared" si="10"/>
+        <v>82638500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="84">
         <v>31</v>
       </c>
       <c r="B55" s="58">
@@ -6696,13 +8357,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="39">
+      <c r="M55" s="87">
+        <f t="shared" si="10"/>
+        <v>84341500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="84">
         <v>32</v>
       </c>
       <c r="B56" s="58">
@@ -6738,13 +8403,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="39">
+      <c r="M56" s="87">
+        <f t="shared" si="10"/>
+        <v>86044500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="84">
         <v>33</v>
       </c>
       <c r="B57" s="58">
@@ -6780,13 +8449,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L57" s="84">
+      <c r="L57" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="39">
+      <c r="M57" s="87">
+        <f t="shared" si="10"/>
+        <v>87747500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="84">
         <v>34</v>
       </c>
       <c r="B58" s="58">
@@ -6822,13 +8495,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L58" s="84">
+      <c r="L58" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="39">
+      <c r="M58" s="87">
+        <f t="shared" si="10"/>
+        <v>89450500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="84">
         <v>35</v>
       </c>
       <c r="B59" s="58">
@@ -6864,13 +8541,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L59" s="84">
+      <c r="L59" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="39">
+      <c r="M59" s="87">
+        <f t="shared" si="10"/>
+        <v>91153500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="84">
         <v>36</v>
       </c>
       <c r="B60" s="58">
@@ -6906,13 +8587,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L60" s="84">
+      <c r="L60" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="39">
+      <c r="M60" s="87">
+        <f t="shared" si="10"/>
+        <v>92856500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="84">
         <v>37</v>
       </c>
       <c r="B61" s="58">
@@ -6948,13 +8633,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L61" s="84">
+      <c r="L61" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="39">
+      <c r="M61" s="87">
+        <f t="shared" si="10"/>
+        <v>94559500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="84">
         <v>38</v>
       </c>
       <c r="B62" s="58">
@@ -6990,13 +8679,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L62" s="84">
+      <c r="L62" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="39">
+      <c r="M62" s="87">
+        <f t="shared" si="10"/>
+        <v>96262500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="84">
         <v>39</v>
       </c>
       <c r="B63" s="58">
@@ -7032,13 +8725,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L63" s="84">
+      <c r="L63" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="39">
+      <c r="M63" s="87">
+        <f t="shared" si="10"/>
+        <v>97965500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="84">
         <v>40</v>
       </c>
       <c r="B64" s="58">
@@ -7074,13 +8771,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L64" s="84">
+      <c r="L64" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="39">
+      <c r="M64" s="87">
+        <f t="shared" si="10"/>
+        <v>99668500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="84">
         <v>41</v>
       </c>
       <c r="B65" s="58">
@@ -7116,13 +8817,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L65" s="84">
+      <c r="L65" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="39">
+      <c r="M65" s="87">
+        <f t="shared" si="10"/>
+        <v>101371500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="84">
         <v>42</v>
       </c>
       <c r="B66" s="58">
@@ -7158,13 +8863,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L66" s="84">
+      <c r="L66" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="39">
+      <c r="M66" s="87">
+        <f t="shared" si="10"/>
+        <v>103074500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="84">
         <v>43</v>
       </c>
       <c r="B67" s="58">
@@ -7200,13 +8909,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L67" s="84">
+      <c r="L67" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="39">
+      <c r="M67" s="87">
+        <f t="shared" si="10"/>
+        <v>104777500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="84">
         <v>44</v>
       </c>
       <c r="B68" s="58">
@@ -7242,13 +8955,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L68" s="84">
+      <c r="L68" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="39">
+      <c r="M68" s="87">
+        <f t="shared" si="10"/>
+        <v>106480500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="84">
         <v>45</v>
       </c>
       <c r="B69" s="58">
@@ -7284,13 +9001,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L69" s="84">
+      <c r="L69" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="39">
+      <c r="M69" s="87">
+        <f t="shared" si="10"/>
+        <v>108183500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="84">
         <v>46</v>
       </c>
       <c r="B70" s="58">
@@ -7326,13 +9047,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L70" s="84">
+      <c r="L70" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="39">
+      <c r="M70" s="87">
+        <f t="shared" si="10"/>
+        <v>109886500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="84">
         <v>47</v>
       </c>
       <c r="B71" s="58">
@@ -7368,13 +9093,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L71" s="84">
+      <c r="L71" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="39">
+      <c r="M71" s="87">
+        <f t="shared" si="10"/>
+        <v>111589500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="84">
         <v>48</v>
       </c>
       <c r="B72" s="58">
@@ -7410,13 +9139,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L72" s="84">
+      <c r="L72" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="39">
+      <c r="M72" s="87">
+        <f t="shared" si="10"/>
+        <v>113292500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="84">
         <v>49</v>
       </c>
       <c r="B73" s="58">
@@ -7452,13 +9185,17 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L73" s="84">
+      <c r="L73" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="39">
+      <c r="M73" s="87">
+        <f t="shared" si="10"/>
+        <v>114995500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="84">
         <v>50</v>
       </c>
       <c r="B74" s="58">
@@ -7494,22 +9231,27 @@
         <f t="shared" si="3"/>
         <v>1703000</v>
       </c>
-      <c r="L74" s="84">
+      <c r="L74" s="71">
         <f t="shared" si="4"/>
         <v>2.7691056910569105E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="87">
+        <f t="shared" si="10"/>
+        <v>116698500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D75"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7517,8 +9259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7539,21 +9281,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="68">
+        <v>57</v>
+      </c>
+      <c r="B4" s="62">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -7562,60 +9304,60 @@
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="68">
+        <v>58</v>
+      </c>
+      <c r="B5" s="62">
         <v>4</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="68">
+        <v>59</v>
+      </c>
+      <c r="B6" s="62">
         <v>50</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="70" t="s">
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="39">
         <v>1</v>
@@ -7641,27 +9383,27 @@
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="74">
+        <v>65</v>
+      </c>
+      <c r="B11" s="68">
         <v>960000</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="68">
         <v>895840</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="68">
         <v>6964511.8096000003</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="68">
         <v>13734967.390374402</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="68">
         <v>14595217.414143838</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="68">
         <v>25737129.492033049</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="68">
         <v>9226144.3023442701</v>
       </c>
     </row>
@@ -7671,53 +9413,53 @@
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="D14" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="E14" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="F14" s="57" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>71</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="80"/>
+      <c r="I14" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="D15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>74</v>
-      </c>
       <c r="E15" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="58"/>
       <c r="K15"/>
@@ -7729,14 +9471,19 @@
       <c r="B16" s="39">
         <v>1</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="58">
+        <v>1550000</v>
+      </c>
+      <c r="D16" s="58">
+        <f>A16+B16+C16</f>
+        <v>1550002</v>
+      </c>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16"/>
@@ -7748,14 +9495,19 @@
       <c r="B17" s="39">
         <v>2</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="58">
+        <v>4650000</v>
+      </c>
+      <c r="D17" s="58">
+        <f t="shared" ref="D17:D65" si="0">A17+B17+C17</f>
+        <v>4650004</v>
+      </c>
       <c r="E17" s="58"/>
       <c r="F17" s="58"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="58"/>
       <c r="K17"/>
@@ -7767,8 +9519,13 @@
       <c r="B18" s="39">
         <v>3</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="58">
+        <v>7750000</v>
+      </c>
+      <c r="D18" s="58">
+        <f t="shared" si="0"/>
+        <v>7750006</v>
+      </c>
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
       <c r="G18"/>
@@ -7783,14 +9540,19 @@
       <c r="B19" s="39">
         <v>4</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="58">
+        <v>10850000</v>
+      </c>
+      <c r="D19" s="58">
+        <f t="shared" si="0"/>
+        <v>10850008</v>
+      </c>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="58"/>
       <c r="K19"/>
@@ -7802,14 +9564,19 @@
       <c r="B20" s="39">
         <v>5</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="58">
+        <v>13950000</v>
+      </c>
+      <c r="D20" s="58">
+        <f t="shared" si="0"/>
+        <v>13950010</v>
+      </c>
       <c r="E20" s="58"/>
       <c r="F20" s="58"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="58"/>
       <c r="K20"/>
@@ -7821,8 +9588,13 @@
       <c r="B21" s="39">
         <v>6</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="58">
+        <v>17050000</v>
+      </c>
+      <c r="D21" s="58">
+        <f t="shared" si="0"/>
+        <v>17050012</v>
+      </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21"/>
@@ -7837,13 +9609,15 @@
       <c r="B22" s="39">
         <v>1</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="58">
+        <v>20150000</v>
+      </c>
+      <c r="D22" s="58">
+        <f t="shared" si="0"/>
+        <v>20150008</v>
+      </c>
       <c r="E22" s="58"/>
       <c r="F22" s="58"/>
-      <c r="G22" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7853,8 +9627,13 @@
       <c r="B23" s="39">
         <v>2</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="58">
+        <v>22650000</v>
+      </c>
+      <c r="D23" s="58">
+        <f t="shared" si="0"/>
+        <v>22650010</v>
+      </c>
       <c r="E23" s="58"/>
       <c r="F23" s="58"/>
       <c r="G23"/>
@@ -7867,13 +9646,18 @@
       <c r="B24" s="39">
         <v>3</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
+      <c r="C24" s="58">
+        <v>24550000</v>
+      </c>
+      <c r="D24" s="58">
+        <f t="shared" si="0"/>
+        <v>24550012</v>
+      </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="J24" s="72"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
@@ -7882,8 +9666,13 @@
       <c r="B25" s="39">
         <v>4</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="58">
+        <v>26450000</v>
+      </c>
+      <c r="D25" s="58">
+        <f t="shared" si="0"/>
+        <v>26450014</v>
+      </c>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
       <c r="G25"/>
@@ -7896,8 +9685,13 @@
       <c r="B26" s="39">
         <v>5</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="58">
+        <v>28350000</v>
+      </c>
+      <c r="D26" s="58">
+        <f t="shared" si="0"/>
+        <v>28350016</v>
+      </c>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
       <c r="G26"/>
@@ -7910,8 +9704,13 @@
       <c r="B27" s="39">
         <v>6</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="58">
+        <v>30250000</v>
+      </c>
+      <c r="D27" s="58">
+        <f t="shared" si="0"/>
+        <v>30250018</v>
+      </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27"/>
@@ -7924,8 +9723,13 @@
       <c r="B28" s="39">
         <v>7</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="58">
+        <v>32150000</v>
+      </c>
+      <c r="D28" s="58">
+        <f t="shared" si="0"/>
+        <v>32150020</v>
+      </c>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
       <c r="G28"/>
@@ -7938,8 +9742,13 @@
       <c r="B29" s="39">
         <v>8</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="58">
+        <v>34050000</v>
+      </c>
+      <c r="D29" s="58">
+        <f t="shared" si="0"/>
+        <v>34050022</v>
+      </c>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29"/>
@@ -7952,8 +9761,13 @@
       <c r="B30" s="39">
         <v>9</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="58">
+        <v>35950000</v>
+      </c>
+      <c r="D30" s="58">
+        <f t="shared" si="0"/>
+        <v>35950024</v>
+      </c>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30"/>
@@ -7966,8 +9780,13 @@
       <c r="B31" s="39">
         <v>10</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="58">
+        <v>37850000</v>
+      </c>
+      <c r="D31" s="58">
+        <f t="shared" si="0"/>
+        <v>37850026</v>
+      </c>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
       <c r="G31"/>
@@ -7980,8 +9799,13 @@
       <c r="B32" s="39">
         <v>11</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="58">
+        <v>39750000</v>
+      </c>
+      <c r="D32" s="58">
+        <f t="shared" si="0"/>
+        <v>39750028</v>
+      </c>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
       <c r="G32"/>
@@ -7994,8 +9818,13 @@
       <c r="B33" s="39">
         <v>12</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="58">
+        <v>41650000</v>
+      </c>
+      <c r="D33" s="58">
+        <f t="shared" si="0"/>
+        <v>41650030</v>
+      </c>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
       <c r="G33"/>
@@ -8008,8 +9837,13 @@
       <c r="B34" s="39">
         <v>13</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="58">
+        <v>43550000</v>
+      </c>
+      <c r="D34" s="58">
+        <f t="shared" si="0"/>
+        <v>43550032</v>
+      </c>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
       <c r="G34"/>
@@ -8022,8 +9856,13 @@
       <c r="B35" s="39">
         <v>14</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="58">
+        <v>45450000</v>
+      </c>
+      <c r="D35" s="58">
+        <f t="shared" si="0"/>
+        <v>45450034</v>
+      </c>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35"/>
@@ -8036,8 +9875,13 @@
       <c r="B36" s="39">
         <v>15</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="58">
+        <v>46750000</v>
+      </c>
+      <c r="D36" s="58">
+        <f t="shared" si="0"/>
+        <v>46750036</v>
+      </c>
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
       <c r="G36"/>
@@ -8050,8 +9894,13 @@
       <c r="B37" s="39">
         <v>16</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="58">
+        <v>47450000</v>
+      </c>
+      <c r="D37" s="58">
+        <f t="shared" si="0"/>
+        <v>47450038</v>
+      </c>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
       <c r="G37"/>
@@ -8064,8 +9913,13 @@
       <c r="B38" s="39">
         <v>17</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="C38" s="58">
+        <v>48150000</v>
+      </c>
+      <c r="D38" s="58">
+        <f t="shared" si="0"/>
+        <v>48150040</v>
+      </c>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
       <c r="G38"/>
@@ -8078,8 +9932,13 @@
       <c r="B39" s="39">
         <v>18</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="C39" s="58">
+        <v>48850000</v>
+      </c>
+      <c r="D39" s="58">
+        <f t="shared" si="0"/>
+        <v>48850042</v>
+      </c>
       <c r="E39" s="58"/>
       <c r="F39" s="58"/>
       <c r="G39"/>
@@ -8092,8 +9951,13 @@
       <c r="B40" s="39">
         <v>19</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="58">
+        <v>49550000</v>
+      </c>
+      <c r="D40" s="58">
+        <f t="shared" si="0"/>
+        <v>49550044</v>
+      </c>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
       <c r="G40"/>
@@ -8106,8 +9970,13 @@
       <c r="B41" s="39">
         <v>20</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="58">
+        <v>50250000</v>
+      </c>
+      <c r="D41" s="58">
+        <f t="shared" si="0"/>
+        <v>50250046</v>
+      </c>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41"/>
@@ -8120,8 +9989,13 @@
       <c r="B42" s="39">
         <v>21</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="C42" s="58">
+        <v>50950000</v>
+      </c>
+      <c r="D42" s="58">
+        <f t="shared" si="0"/>
+        <v>50950048</v>
+      </c>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42"/>
@@ -8134,8 +10008,13 @@
       <c r="B43" s="39">
         <v>22</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="58">
+        <v>51650000</v>
+      </c>
+      <c r="D43" s="58">
+        <f t="shared" si="0"/>
+        <v>51650050</v>
+      </c>
       <c r="E43" s="58"/>
       <c r="F43" s="58"/>
       <c r="G43"/>
@@ -8148,8 +10027,13 @@
       <c r="B44" s="39">
         <v>23</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="58">
+        <v>52350000</v>
+      </c>
+      <c r="D44" s="58">
+        <f t="shared" si="0"/>
+        <v>52350052</v>
+      </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
       <c r="G44"/>
@@ -8162,8 +10046,13 @@
       <c r="B45" s="39">
         <v>24</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="58">
+        <v>53050000</v>
+      </c>
+      <c r="D45" s="58">
+        <f t="shared" si="0"/>
+        <v>53050054</v>
+      </c>
       <c r="E45" s="58"/>
       <c r="F45" s="58"/>
       <c r="G45"/>
@@ -8176,8 +10065,13 @@
       <c r="B46" s="39">
         <v>25</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="58">
+        <v>53750000</v>
+      </c>
+      <c r="D46" s="58">
+        <f t="shared" si="0"/>
+        <v>53750056</v>
+      </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
       <c r="G46"/>
@@ -8190,8 +10084,13 @@
       <c r="B47" s="39">
         <v>26</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="C47" s="58">
+        <v>54450000</v>
+      </c>
+      <c r="D47" s="58">
+        <f t="shared" si="0"/>
+        <v>54450058</v>
+      </c>
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
       <c r="G47"/>
@@ -8204,8 +10103,13 @@
       <c r="B48" s="39">
         <v>27</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="C48" s="58">
+        <v>55150000</v>
+      </c>
+      <c r="D48" s="58">
+        <f t="shared" si="0"/>
+        <v>55150060</v>
+      </c>
       <c r="E48" s="58"/>
       <c r="F48" s="58"/>
       <c r="G48"/>
@@ -8218,8 +10122,13 @@
       <c r="B49" s="39">
         <v>28</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="58">
+        <v>55850000</v>
+      </c>
+      <c r="D49" s="58">
+        <f t="shared" si="0"/>
+        <v>55850062</v>
+      </c>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
       <c r="G49"/>
@@ -8232,8 +10141,13 @@
       <c r="B50" s="39">
         <v>29</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="58">
+        <v>56550000</v>
+      </c>
+      <c r="D50" s="58">
+        <f t="shared" si="0"/>
+        <v>56550064</v>
+      </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
       <c r="G50"/>
@@ -8246,8 +10160,13 @@
       <c r="B51" s="39">
         <v>30</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="C51" s="58">
+        <v>57250000</v>
+      </c>
+      <c r="D51" s="58">
+        <f t="shared" si="0"/>
+        <v>57250066</v>
+      </c>
       <c r="E51" s="58"/>
       <c r="F51" s="58"/>
       <c r="G51"/>
@@ -8260,8 +10179,13 @@
       <c r="B52" s="39">
         <v>31</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="58">
+        <v>57950000</v>
+      </c>
+      <c r="D52" s="58">
+        <f t="shared" si="0"/>
+        <v>57950068</v>
+      </c>
       <c r="E52" s="58"/>
       <c r="F52" s="58"/>
       <c r="G52"/>
@@ -8274,8 +10198,13 @@
       <c r="B53" s="39">
         <v>32</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="58">
+        <v>58650000</v>
+      </c>
+      <c r="D53" s="58">
+        <f t="shared" si="0"/>
+        <v>58650070</v>
+      </c>
       <c r="E53" s="58"/>
       <c r="F53" s="58"/>
       <c r="G53"/>
@@ -8288,8 +10217,13 @@
       <c r="B54" s="39">
         <v>33</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="58">
+        <v>59350000</v>
+      </c>
+      <c r="D54" s="58">
+        <f t="shared" si="0"/>
+        <v>59350072</v>
+      </c>
       <c r="E54" s="58"/>
       <c r="F54" s="58"/>
       <c r="G54"/>
@@ -8302,8 +10236,13 @@
       <c r="B55" s="39">
         <v>34</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
+      <c r="C55" s="58">
+        <v>60050000</v>
+      </c>
+      <c r="D55" s="58">
+        <f t="shared" si="0"/>
+        <v>60050074</v>
+      </c>
       <c r="E55" s="58"/>
       <c r="F55" s="58"/>
       <c r="G55"/>
@@ -8316,8 +10255,13 @@
       <c r="B56" s="39">
         <v>35</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="58">
+        <v>60750000</v>
+      </c>
+      <c r="D56" s="58">
+        <f t="shared" si="0"/>
+        <v>60750076</v>
+      </c>
       <c r="E56" s="58"/>
       <c r="F56" s="58"/>
       <c r="G56"/>
@@ -8330,8 +10274,13 @@
       <c r="B57" s="39">
         <v>36</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="C57" s="58">
+        <v>61450000</v>
+      </c>
+      <c r="D57" s="58">
+        <f t="shared" si="0"/>
+        <v>61450078</v>
+      </c>
       <c r="E57" s="58"/>
       <c r="F57" s="58"/>
       <c r="G57"/>
@@ -8344,8 +10293,13 @@
       <c r="B58" s="39">
         <v>37</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="58">
+        <v>62150000</v>
+      </c>
+      <c r="D58" s="58">
+        <f t="shared" si="0"/>
+        <v>62150080</v>
+      </c>
       <c r="E58" s="58"/>
       <c r="F58" s="58"/>
       <c r="G58"/>
@@ -8358,8 +10312,13 @@
       <c r="B59" s="39">
         <v>38</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="58">
+        <v>62850000</v>
+      </c>
+      <c r="D59" s="58">
+        <f t="shared" si="0"/>
+        <v>62850082</v>
+      </c>
       <c r="E59" s="58"/>
       <c r="F59" s="58"/>
       <c r="G59"/>
@@ -8372,8 +10331,13 @@
       <c r="B60" s="39">
         <v>39</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="58">
+        <v>63550000</v>
+      </c>
+      <c r="D60" s="58">
+        <f t="shared" si="0"/>
+        <v>63550084</v>
+      </c>
       <c r="E60" s="58"/>
       <c r="F60" s="58"/>
       <c r="G60"/>
@@ -8386,8 +10350,13 @@
       <c r="B61" s="39">
         <v>40</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="58">
+        <v>64250000</v>
+      </c>
+      <c r="D61" s="58">
+        <f t="shared" si="0"/>
+        <v>64250086</v>
+      </c>
       <c r="E61" s="58"/>
       <c r="F61" s="58"/>
       <c r="G61"/>
@@ -8400,8 +10369,13 @@
       <c r="B62" s="39">
         <v>41</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="C62" s="58">
+        <v>64950000</v>
+      </c>
+      <c r="D62" s="58">
+        <f t="shared" si="0"/>
+        <v>64950088</v>
+      </c>
       <c r="E62" s="58"/>
       <c r="F62" s="58"/>
       <c r="G62"/>
@@ -8414,8 +10388,13 @@
       <c r="B63" s="39">
         <v>42</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
+      <c r="C63" s="58">
+        <v>65650000</v>
+      </c>
+      <c r="D63" s="58">
+        <f t="shared" si="0"/>
+        <v>65650090</v>
+      </c>
       <c r="E63" s="58"/>
       <c r="F63" s="58"/>
       <c r="G63"/>
@@ -8428,8 +10407,13 @@
       <c r="B64" s="39">
         <v>43</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
+      <c r="C64" s="58">
+        <v>66350000</v>
+      </c>
+      <c r="D64" s="58">
+        <f t="shared" si="0"/>
+        <v>66350092</v>
+      </c>
       <c r="E64" s="58"/>
       <c r="F64" s="58"/>
       <c r="G64"/>
@@ -8442,8 +10426,13 @@
       <c r="B65" s="39">
         <v>44</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
+      <c r="C65" s="58">
+        <v>67050000</v>
+      </c>
+      <c r="D65" s="58">
+        <f t="shared" si="0"/>
+        <v>67050094</v>
+      </c>
       <c r="E65" s="58"/>
       <c r="F65" s="58"/>
       <c r="G65"/>
